--- a/model/results/green_ggpos_h2pos/v_mix.xlsx
+++ b/model/results/green_ggpos_h2pos/v_mix.xlsx
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12288253.33333333</v>
       </c>
       <c r="C6" t="n">
-        <v>12288253.33333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19024519.00436648</v>
+        <v>13047378.22205793</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2142199.444576575</v>
+        <v>17751110.16727263</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2016725.60982679</v>
+        <v>11037109.86787408</v>
       </c>
     </row>
     <row r="5">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1999999.999999998</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17241804.26331643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12368707.70337027</v>
+        <v>11527672.87362459</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19043543.52337085</v>
+        <v>13060425.60027998</v>
       </c>
     </row>
     <row r="3">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2144341.644021152</v>
+        <v>17768861.27743991</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2018742.335436617</v>
+        <v>11048146.97774196</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17261046.06757975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12381076.41107364</v>
+        <v>11539200.54649821</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19062587.06689422</v>
+        <v>13073486.02588026</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2146485.985665172</v>
+        <v>17786630.13871734</v>
       </c>
     </row>
     <row r="4">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2020761.077772053</v>
+        <v>11059195.1247197</v>
       </c>
     </row>
     <row r="5">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17280307.11364732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12393457.48748471</v>
+        <v>11550739.74704471</v>
       </c>
     </row>
     <row r="7">
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19081649.65396111</v>
+        <v>13086559.51190614</v>
       </c>
     </row>
     <row r="3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2148632.471650836</v>
+        <v>17804416.76885605</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2022781.838849824</v>
+        <v>11070254.31984439</v>
       </c>
     </row>
     <row r="5">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17299587.42076097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12405850.94497219</v>
+        <v>11562290.48679175</v>
       </c>
     </row>
     <row r="7">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19100731.30361507</v>
+        <v>13099646.07141806</v>
       </c>
     </row>
     <row r="3">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2150781.104122487</v>
+        <v>17822221.18562493</v>
       </c>
     </row>
     <row r="4">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2024804.620688675</v>
+        <v>11081324.57416423</v>
       </c>
     </row>
     <row r="5">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17318887.00818173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12418256.79591717</v>
+        <v>11573852.77727854</v>
       </c>
     </row>
     <row r="7">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19119832.03491869</v>
+        <v>13112745.71748946</v>
       </c>
     </row>
     <row r="3">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2026829.425309363</v>
+        <v>11092405.8987384</v>
       </c>
     </row>
     <row r="5">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3499999.999999998</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>15838205.89518991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12430675.05271308</v>
+        <v>11585426.63005582</v>
       </c>
     </row>
     <row r="7">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2152931.88522661</v>
+        <v>17840043.40681053</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19138951.8669536</v>
+        <v>13660132.80862614</v>
       </c>
     </row>
     <row r="3">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2028856.254734673</v>
+        <v>1944246.887626681</v>
       </c>
     </row>
     <row r="5">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3500000</v>
+        <v>1640297.158039327</v>
       </c>
       <c r="C5" t="n">
-        <v>15857544.1010851</v>
+        <v>-1.048293688080528e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12443105.72776579</v>
+        <v>11597012.05668588</v>
       </c>
     </row>
     <row r="7">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2155084.817111836</v>
+        <v>25498743.50927739</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19158090.81882055</v>
+        <v>13673792.94143476</v>
       </c>
     </row>
     <row r="3">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2030885.110989407</v>
+        <v>1946191.134514307</v>
       </c>
     </row>
     <row r="5">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3499999.999999998</v>
+        <v>1641937.455197365</v>
       </c>
       <c r="C5" t="n">
-        <v>15876901.64518618</v>
+        <v>-9.085953018882058e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12455548.83349356</v>
+        <v>11608609.06874256</v>
       </c>
     </row>
     <row r="7">
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2157239.901928947</v>
+        <v>25524242.25278667</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19177248.90963937</v>
+        <v>13687466.73437619</v>
       </c>
     </row>
     <row r="3">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2032915.996100396</v>
+        <v>1948137.32564882</v>
       </c>
     </row>
     <row r="5">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3500000</v>
+        <v>1643579.392652563</v>
       </c>
       <c r="C5" t="n">
-        <v>15896278.54683136</v>
+        <v>-1.025010623715141e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12468004.38232705</v>
+        <v>11620217.6778113</v>
       </c>
     </row>
     <row r="7">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2159397.141830876</v>
+        <v>25549766.49503945</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19196426.15854901</v>
+        <v>13701154.20111057</v>
       </c>
     </row>
     <row r="3">
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2034948.912096496</v>
+        <v>1950085.46297447</v>
       </c>
     </row>
     <row r="5">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3500000</v>
+        <v>1645222.972045217</v>
       </c>
       <c r="C5" t="n">
-        <v>15915674.82537819</v>
+        <v>-1.164709009907462e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12480472.38670938</v>
+        <v>11631837.89548911</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2161556.538972707</v>
+        <v>25575316.26153449</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9882467.775943613</v>
+        <v>8858189.447514813</v>
       </c>
     </row>
     <row r="3">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11442705.93469319</v>
+        <v>10054793.2485</v>
       </c>
     </row>
     <row r="4">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22939009.17102155</v>
+        <v>18408523.71135555</v>
       </c>
     </row>
     <row r="5">
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12300541.58666667</v>
+        <v>11640520.22466667</v>
       </c>
     </row>
     <row r="7">
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.101488459177992e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19215622.58470755</v>
+        <v>13714855.35531168</v>
       </c>
     </row>
     <row r="3">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2036983.861008592</v>
+        <v>1952035.548437444</v>
       </c>
     </row>
     <row r="5">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3499999.999999998</v>
+        <v>1646868.19501726</v>
       </c>
       <c r="C5" t="n">
-        <v>15935090.50020357</v>
+        <v>-1.048293688080528e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12492952.85909609</v>
+        <v>11643469.7333846</v>
       </c>
     </row>
     <row r="7">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2163718.09551168</v>
+        <v>25600891.57779601</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9892350.243719548</v>
+        <v>8867047.636962324</v>
       </c>
     </row>
     <row r="3">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11454148.64062789</v>
+        <v>10064848.0417485</v>
       </c>
     </row>
     <row r="4">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22961948.18019256</v>
+        <v>18426932.2350669</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12312842.12825333</v>
+        <v>11652160.74489133</v>
       </c>
     </row>
     <row r="7">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.923587066375396e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9902242.593963277</v>
+        <v>8875914.68459929</v>
       </c>
     </row>
     <row r="3">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11465602.78926851</v>
+        <v>10074912.88979024</v>
       </c>
     </row>
     <row r="4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22984910.12837274</v>
+        <v>18445359.16730196</v>
       </c>
     </row>
     <row r="5">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12325154.97038158</v>
+        <v>11663812.90563622</v>
       </c>
     </row>
     <row r="7">
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.700755092315376e-10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13489737.53691044</v>
+        <v>12982336.58587442</v>
       </c>
     </row>
     <row r="3">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6319011.649306815</v>
+        <v>5706860.989285045</v>
       </c>
     </row>
     <row r="4">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23582289.62866229</v>
+        <v>22937848.76341034</v>
       </c>
     </row>
     <row r="5">
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12132210.42849662</v>
+        <v>11470207.02168651</v>
       </c>
     </row>
     <row r="7">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7.264588930411264e-11</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13503227.27444735</v>
+        <v>12995318.92246028</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6325330.660956122</v>
+        <v>5712567.850274329</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23605871.91829095</v>
+        <v>22960786.61217374</v>
       </c>
     </row>
     <row r="5">
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12144342.63892511</v>
+        <v>11481677.2287082</v>
       </c>
     </row>
     <row r="7">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.32716956816148e-10</v>
       </c>
     </row>
   </sheetData>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13516730.5017218</v>
+        <v>13008314.24138274</v>
       </c>
     </row>
     <row r="3">
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6331655.991617076</v>
+        <v>17697963.16618662</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23629477.79020925</v>
+        <v>11004064.6507239</v>
       </c>
     </row>
     <row r="5">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12156486.98156404</v>
+        <v>11493158.90593691</v>
       </c>
     </row>
     <row r="7">
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13644233.75170671</v>
+        <v>13021322.55562413</v>
       </c>
     </row>
     <row r="3">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6469510.554704679</v>
+        <v>17715661.12935279</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23670643.65561224</v>
+        <v>11015068.71537463</v>
       </c>
     </row>
     <row r="5">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12344007.34467358</v>
+        <v>11504652.06484284</v>
       </c>
     </row>
     <row r="7">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13657877.98545841</v>
+        <v>13034343.87817975</v>
       </c>
     </row>
     <row r="3">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6475980.065259384</v>
+        <v>17733376.79048216</v>
       </c>
     </row>
     <row r="4">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23694314.29926785</v>
+        <v>11026083.78409</v>
       </c>
     </row>
     <row r="5">
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12356351.35201826</v>
+        <v>11516156.71690768</v>
       </c>
     </row>
     <row r="7">
